--- a/Intenções.xlsx
+++ b/Intenções.xlsx
@@ -420,18 +420,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="57" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>INTENÇÕES DA MISSA 16/11/2025 - 22:00</t>
+          <t>INTENÇÕES DA MISSA 23/11/2025 - 12:00</t>
         </is>
       </c>
     </row>
@@ -448,133 +451,399 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Divino Espírito Santo</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Nossa Senhora Aparecida</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ANIVERSÁRIO:</t>
+          <t>São José</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Beatificação Venerável Servo de Deus Padre Libério</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Nossa Senhora do Desterro</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ANIVERSÁRIO DE CASAMENTO:</t>
+          <t>São Francisco de Paula</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>São Sebastião</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>São Carlo Acutis</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>AÇÃO DE GRAÇAS:</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>INTENÇÃO:</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Particular</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>INTENÇÕES:</t>
+          <t>Vocações Sacerdotais</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Rosangela de Sousa e Silva</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Alfredo Dór da Silva e família</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RECUPERAÇÃO DE SAÚDE:</t>
+          <t>Claudia Leticia e Marcelo Bonfim</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Arthur Antunes  Fidelis</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Pela empresa  La Nonna Café clientes  e funcionários</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Anjo da guarda de Jaqueline e Wilton</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>7º DIA:</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>+ Teste</t>
+          <t>ANIVERSÁRIO NATALÍCIO:</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>José Henrique Neto</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
+          <t>Maria da Consolação Brazil Pimentel</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RECUPERAÇÃO DE SAÚDE:</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Todos os enfermos da Paróquia</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Marcelo Chula Bonfim</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Maura Aparecida de Paulo</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>ANIVERSÁRIO DE CASAMENTO:</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Rafael e Cecília (5 anos)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Rafael E Ceci (100000000000 Anos)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>AÇÃO DE GRAÇAS:</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Pela  contabilidade  Coelho Rocha</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
           <t>IRMÃOS FALECIDOS:</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>+ Teste</t>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>+ Por todas as almas</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>+Heide Abreu Machado</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>+Norvina Ana de Oliveira</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>+ Silvio Eustáquio da Silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>+ Maria José Faria Sousa</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>+ Rubens de Assis</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>+ Nivaldo Amaral</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>+ Olimpia de Souza</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>+ Orlando Manatta</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>+ Marcos de Oliveira</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>+ Pelas almas do purgatório</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>+ Rafaela Costa Pacheco</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>+  Pelo Santo Padre o Papa</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>+José Gregório Pinheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>+Paulo Roberto Aureliano</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>+Eloyh Vasconcelos Seixas</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>+Lídia marcho de Ornellas</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>+ Randriel Grayck Silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>7º DIA:</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>7º Dia Raimundo Nonato</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>7º Dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>7º Dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>7º Dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>7º Dia</t>
         </is>
       </c>
     </row>

--- a/Intenções.xlsx
+++ b/Intenções.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:A80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,13 +428,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="57" customWidth="1" min="1" max="1"/>
+    <col width="98" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>INTENÇÕES DA MISSA 23/11/2025 - 12:00</t>
+          <t>INTENÇÕES DA MISSA 07/12/2025 - 10+1:00</t>
         </is>
       </c>
     </row>
@@ -449,399 +449,511 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Divino Espírito Santo</t>
-        </is>
-      </c>
+      <c r="A4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Nossa Senhora Aparecida</t>
+          <t>INTENÇÃO:</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>São José</t>
+          <t>Divino Espírito Santo</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Beatificação Venerável Servo de Deus Padre Libério</t>
+          <t>Nossa Senhora Aparecida</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Nossa Senhora do Desterro</t>
+          <t>Particular</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>São Francisco de Paula</t>
+          <t>São José</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>São Sebastião</t>
+          <t>Vocações Sacerdotais</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>São Carlo Acutis</t>
+          <t>Beatificação Venerável Servo de Deus Padre Libério</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Conversão dos pecadores</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>INTENÇÃO:</t>
+          <t>Nossa Senhora do Desterro</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Particular</t>
+          <t>Pelos colegas de Rogerio Pereira Castro da</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Vocações Sacerdotais</t>
+          <t>São Francisco de Paula</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Rosangela de Sousa e Silva</t>
+          <t>PRODEMGE Programa de Tecnologia de Minas</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Alfredo Dór da Silva e família</t>
+          <t>São Sebastião</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Claudia Leticia e Marcelo Bonfim</t>
+          <t>Marcelo Chula Bonfim</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Arthur Antunes  Fidelis</t>
+          <t>Nossa Senhora do Desterro</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pela empresa  La Nonna Café clientes  e funcionários</t>
+          <t>Rodrigo Braga  Chula</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Anjo da guarda de Jaqueline e Wilton</t>
+          <t>Nossa senhora das Graças</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Alfredo Dór da Silva e família</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ANIVERSÁRIO NATALÍCIO:</t>
+          <t>São José</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>José Henrique Neto</t>
+          <t>Daniel  Henrique  Silva</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Maria da Consolação Brazil Pimentel</t>
+          <t>Santo Onofre</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Lucas  de Freitas Francelino</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>RECUPERAÇÃO DE SAÚDE:</t>
+          <t>Santa Edwiges</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Todos os enfermos da Paróquia</t>
+          <t>Lourival  de Freitas Mourão</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Marcelo Chula Bonfim</t>
+          <t>Santa Luzia</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Maura Aparecida de Paulo</t>
-        </is>
-      </c>
+      <c r="A30" s="1" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>ANIVERSÁRIO NATALÍCIO:</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ANIVERSÁRIO DE CASAMENTO:</t>
+          <t>AMBROSIO BRASIL VELASCO</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Rafael e Cecília (5 anos)</t>
+          <t>ANGELA MARIA TOMÉ</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Rafael E Ceci (100000000000 Anos)</t>
+          <t>LUIZ CARLOS XAVIER</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n"/>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>MARIA AUXILIADORA AMARAL NUNES</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>AÇÃO DE GRAÇAS:</t>
-        </is>
-      </c>
+      <c r="A36" s="1" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Pela  contabilidade  Coelho Rocha</t>
+          <t>RECUPERAÇÃO DE SAÚDE:</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Por uma graça alcançada</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>IRMÃOS FALECIDOS:</t>
+          <t>Todos os enfermos da Paróquia</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>+ Por todas as almas</t>
+          <t>José Geraldo Rabelo Júnior</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>+Heide Abreu Machado</t>
+          <t>Antônio Henrique de Castro e Geraldo Sinfrônico de Castro</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>+Norvina Ana de Oliveira</t>
+          <t>+ Por todas as  Almas</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>+ Silvio Eustáquio da Silva</t>
+          <t>+ Raimunda Maria de Castro e Jose de Castro, Terezinha Maria de Castro e Familiares falecidos</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>+ Maria José Faria Sousa</t>
+          <t>+ Rogério Pereira Castro</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>+ Rubens de Assis</t>
+          <t>+ Dorvalino Teodoro Pereira e familiares falecidos</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>+ Nivaldo Amaral</t>
+          <t>+Alaor Alves Vilano</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>+ Olimpia de Souza</t>
+          <t>+Silvio Eustáquio da Silva</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>+ Orlando Manatta</t>
+          <t>+Norvina Ana de Oliveira</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>+ Marcos de Oliveira</t>
+          <t>+Marcilio Soares Neto</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>+ Pelas almas do purgatório</t>
+          <t>+ Miguel Vaz</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>+ Rafaela Costa Pacheco</t>
+          <t>+ Olimpia de Souza</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>+  Pelo Santo Padre o Papa</t>
+          <t>+ Antônio Miguel Maia</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>+José Gregório Pinheiro</t>
+          <t>+ Altiva Gomes Brandão e Domingos Brandão</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>+Paulo Roberto Aureliano</t>
+          <t>+ Maria de Carvalho Ribeiro ( Dona Glorinha)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>+Eloyh Vasconcelos Seixas</t>
+          <t>+ Alaor Alves Vilano</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>+Lídia marcho de Ornellas</t>
+          <t>+ Maria Policarpo Mourão</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>+ Randriel Grayck Silva</t>
+          <t>+ Daniel José da Costa</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n"/>
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>+ Vicente Mereciano Gonçalves</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>7º DIA:</t>
+          <t>+ Adalgiza  Rita Gonçalves</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>7º Dia Raimundo Nonato</t>
+          <t>+ José Amâncio Marques</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>7º Dia</t>
+          <t>+ Bernardino Ivo</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>7º Dia</t>
+          <t>+Onofre  Evangelista Soares</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>7º Dia</t>
+          <t>+ Vicente Mereciano Gonçalves</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>+ Adalgiza Rita Gonçalves</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>+ José Amâncio Marques</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>ANIVERSÁRIO DE CASAMENTO:</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>VERA LUCIA BARBOSA LIMA  E  JOSE TARCISIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>AÇÃO DE GRAÇAS:</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Família  Gontijo Silveira</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>IRMÃOS FALECIDOS:</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>7º DIA:</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>7º Dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>7º Dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>7º Dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>7º Dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
         <is>
           <t>7º Dia</t>
         </is>

--- a/Intenções.xlsx
+++ b/Intenções.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A80"/>
+  <dimension ref="A1:A75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>INTENÇÕES DA MISSA 07/12/2025 - 10+1:00</t>
+          <t>INTENÇÕES DA MISSA 07/12/2025 - 12:00</t>
         </is>
       </c>
     </row>
@@ -449,180 +449,180 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Divino Espírito Santo</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>INTENÇÃO:</t>
+          <t>Nossa Senhora Aparecida</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Divino Espírito Santo</t>
+          <t>São José</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Nossa Senhora Aparecida</t>
+          <t>Beatificação Venerável Servo de Deus Padre Libério</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Particular</t>
+          <t>Nossa Senhora do Desterro</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>São José</t>
+          <t>São Francisco de Paula</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Vocações Sacerdotais</t>
+          <t>São Sebastião</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Beatificação Venerável Servo de Deus Padre Libério</t>
+          <t>Nossa Senhora do Desterro</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Conversão dos pecadores</t>
+          <t>Nossa senhora das Graças</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Nossa Senhora do Desterro</t>
+          <t>São José</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Pelos colegas de Rogerio Pereira Castro da</t>
+          <t>Santo Onofre</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>São Francisco de Paula</t>
+          <t>Santa Edwiges</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>PRODEMGE Programa de Tecnologia de Minas</t>
+          <t>Santa Luzia</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>São Sebastião</t>
-        </is>
-      </c>
+      <c r="A17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Marcelo Chula Bonfim</t>
+          <t>INTENÇÃO:</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Nossa Senhora do Desterro</t>
+          <t>Particular</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Rodrigo Braga  Chula</t>
+          <t>Vocações Sacerdotais</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Nossa senhora das Graças</t>
+          <t>Conversão dos pecadores</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Alfredo Dór da Silva e família</t>
+          <t>Pelos colegas de Rogerio Pereira Castro da</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>São José</t>
+          <t>PRODEMGE Programa de Tecnologia de Minas</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Daniel  Henrique  Silva</t>
+          <t>Marcelo Chula Bonfim</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Santo Onofre</t>
+          <t>Rodrigo Braga  Chula</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Lucas  de Freitas Francelino</t>
+          <t>Alfredo Dór da Silva e família</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Santa Edwiges</t>
+          <t>Daniel  Henrique  Silva</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Lourival  de Freitas Mourão</t>
+          <t>Lucas  de Freitas Francelino</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Santa Luzia</t>
+          <t>Lourival  de Freitas Mourão</t>
         </is>
       </c>
     </row>
@@ -677,240 +677,240 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Por uma graça alcançada</t>
+          <t>Todos os enfermos da Paróquia</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Todos os enfermos da Paróquia</t>
+          <t>José Geraldo Rabelo Júnior</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>José Geraldo Rabelo Júnior</t>
+          <t>Antônio Henrique de Castro e Geraldo Sinfrônico de Castro</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>Antônio Henrique de Castro e Geraldo Sinfrônico de Castro</t>
-        </is>
-      </c>
+      <c r="A41" s="1" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>+ Por todas as  Almas</t>
+          <t>ANIVERSÁRIO DE CASAMENTO:</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>+ Raimunda Maria de Castro e Jose de Castro, Terezinha Maria de Castro e Familiares falecidos</t>
+          <t>VERA LUCIA BARBOSA LIMA  E  JOSE TARCISIO</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>+ Rogério Pereira Castro</t>
-        </is>
-      </c>
+      <c r="A44" s="1" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>+ Dorvalino Teodoro Pereira e familiares falecidos</t>
+          <t>AÇÃO DE GRAÇAS:</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>+Alaor Alves Vilano</t>
+          <t>Família  Gontijo Silveira</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>+Silvio Eustáquio da Silva</t>
+          <t>Por uma graça alcançada</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>+Norvina Ana de Oliveira</t>
-        </is>
-      </c>
+      <c r="A48" s="1" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>+Marcilio Soares Neto</t>
+          <t>IRMÃOS FALECIDOS:</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>+ Miguel Vaz</t>
+          <t>+ Por todas as  Almas</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>+ Olimpia de Souza</t>
+          <t>+ Raimunda Maria de Castro e Jose de Castro, Terezinha Maria de Castro e Familiares falecidos</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>+ Antônio Miguel Maia</t>
+          <t>+ Rogério Pereira Castro</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>+ Altiva Gomes Brandão e Domingos Brandão</t>
+          <t>+ Dorvalino Teodoro Pereira e familiares falecidos</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>+ Maria de Carvalho Ribeiro ( Dona Glorinha)</t>
+          <t>+Alaor Alves Vilano</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>+ Alaor Alves Vilano</t>
+          <t>+Silvio Eustáquio da Silva</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>+ Maria Policarpo Mourão</t>
+          <t>+Norvina Ana de Oliveira</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>+ Daniel José da Costa</t>
+          <t>+Marcilio Soares Neto</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>+ Vicente Mereciano Gonçalves</t>
+          <t>+ Miguel Vaz</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>+ Adalgiza  Rita Gonçalves</t>
+          <t>+ Olimpia de Souza</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>+ José Amâncio Marques</t>
+          <t>+ Antônio Miguel Maia</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>+ Bernardino Ivo</t>
+          <t>+ Altiva Gomes Brandão e Domingos Brandão</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>+Onofre  Evangelista Soares</t>
+          <t>+ Maria de Carvalho Ribeiro ( Dona Glorinha)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>+ Vicente Mereciano Gonçalves</t>
+          <t>+ Alaor Alves Vilano</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>+ Adalgiza Rita Gonçalves</t>
+          <t>+ Maria Policarpo Mourão</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>+ José Amâncio Marques</t>
+          <t>+ Daniel José da Costa</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n"/>
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>+ Vicente Mereciano Gonçalves</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>ANIVERSÁRIO DE CASAMENTO:</t>
+          <t>+ Adalgiza  Rita Gonçalves</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>VERA LUCIA BARBOSA LIMA  E  JOSE TARCISIO</t>
+          <t>+ José Amâncio Marques</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n"/>
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>+ Bernardino Ivo</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>AÇÃO DE GRAÇAS:</t>
+          <t>+Onofre  Evangelista Soares</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Família  Gontijo Silveira</t>
+          <t>+ Vicente Mereciano Gonçalves</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n"/>
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>+ Adalgiza Rita Gonçalves</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>IRMÃOS FALECIDOS:</t>
+          <t>+ José Amâncio Marques</t>
         </is>
       </c>
     </row>
@@ -921,41 +921,6 @@
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>7º DIA:</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>7º Dia</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>7º Dia</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>7º Dia</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>7º Dia</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>7º Dia</t>
         </is>
       </c>
     </row>

--- a/Intenções.xlsx
+++ b/Intenções.xlsx
@@ -434,7 +434,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>INTENÇÕES DA MISSA 07/12/2025 - 12:00</t>
+          <t>INTENÇÕES DA MISSA 03/01/2026 - 16:00</t>
         </is>
       </c>
     </row>
